--- a/artfynd/A 22960-2019.xlsx
+++ b/artfynd/A 22960-2019.xlsx
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>717045.2742309959</v>
+        <v>717045</v>
       </c>
       <c r="R57" t="n">
-        <v>6646924.216150446</v>
+        <v>6646924</v>
       </c>
       <c r="S57" t="n">
         <v>100</v>
@@ -7297,19 +7297,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">

--- a/artfynd/A 22960-2019.xlsx
+++ b/artfynd/A 22960-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67913215</v>
+        <v>67913183</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>90674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,36 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>717094.2343623195</v>
+        <v>717196.8702048012</v>
       </c>
       <c r="R2" t="n">
-        <v>6646948.209421237</v>
+        <v>6646958.762340512</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,6 +781,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67914010</v>
+        <v>67913215</v>
       </c>
       <c r="B3" t="n">
-        <v>93235</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -816,33 +816,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>kapslar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -851,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>716545.1521927882</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R3" t="n">
-        <v>6646588.154634802</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -901,7 +893,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På gammal rötskadad granlåga.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1281,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67914003</v>
+        <v>67913270</v>
       </c>
       <c r="B7" t="n">
-        <v>90665</v>
+        <v>90661</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1293,29 +1285,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>2058</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>716563.1424072031</v>
+        <v>716880.2087797265</v>
       </c>
       <c r="R7" t="n">
-        <v>6646607.814324502</v>
+        <v>6646878.829376921</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1369,6 +1369,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>I anslutning till vildsvinsbökad mark.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1396,10 +1401,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67914177</v>
+        <v>67913209</v>
       </c>
       <c r="B8" t="n">
-        <v>108194</v>
+        <v>56411</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1408,44 +1413,52 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219711</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>716551.2037129711</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R8" t="n">
-        <v>6646502.014087326</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1511,10 +1524,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67914236</v>
+        <v>67913282</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89412</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1523,47 +1536,40 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>716606.9416252106</v>
+        <v>716818.1044006473</v>
       </c>
       <c r="R9" t="n">
-        <v>6646462.030048631</v>
+        <v>6647053.18770974</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1614,6 +1620,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1632,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67914140</v>
+        <v>67913278</v>
       </c>
       <c r="B10" t="n">
-        <v>85077</v>
+        <v>4717</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,36 +1655,43 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3762</v>
+        <v>102306</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>716558.9255464342</v>
+        <v>716755.7881303673</v>
       </c>
       <c r="R10" t="n">
-        <v>6646542.193822215</v>
+        <v>6646896.172787146</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1728,7 +1742,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1747,10 +1760,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67914480</v>
+        <v>67913139</v>
       </c>
       <c r="B11" t="n">
-        <v>90665</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,36 +1776,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>716678.2056377706</v>
+        <v>717187.9496040216</v>
       </c>
       <c r="R11" t="n">
-        <v>6646397.810981502</v>
+        <v>6646939.130624352</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1837,13 +1851,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1862,10 +1880,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67913270</v>
+        <v>67913851</v>
       </c>
       <c r="B12" t="n">
-        <v>90661</v>
+        <v>90074</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1874,37 +1892,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2058</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1912,10 +1922,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>716880.2087797265</v>
+        <v>716689.1208222503</v>
       </c>
       <c r="R12" t="n">
-        <v>6646878.829376921</v>
+        <v>6646907.853172779</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1962,7 +1972,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>I anslutning till vildsvinsbökad mark.</t>
+          <t>På höstubbe av gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1990,10 +2000,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67913209</v>
+        <v>67913289</v>
       </c>
       <c r="B13" t="n">
-        <v>56411</v>
+        <v>73631</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2002,52 +2012,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>717094.2343623195</v>
+        <v>716779.0899203173</v>
       </c>
       <c r="R13" t="n">
-        <v>6646948.209421237</v>
+        <v>6647014.194535435</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2087,6 +2088,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2113,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67914073</v>
+        <v>67914797</v>
       </c>
       <c r="B14" t="n">
-        <v>99398</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,41 +2131,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221235</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>716558.9255464342</v>
+        <v>717063.1636913288</v>
       </c>
       <c r="R14" t="n">
-        <v>6646542.193822215</v>
+        <v>6646773.909642578</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2204,12 +2209,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På grenar på gammal levande gran.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2228,10 +2239,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67914379</v>
+        <v>67914512</v>
       </c>
       <c r="B15" t="n">
-        <v>101680</v>
+        <v>90005</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2244,37 +2255,36 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222412</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>716677.1987222674</v>
+        <v>716658.238045899</v>
       </c>
       <c r="R15" t="n">
-        <v>6646389.202686813</v>
+        <v>6646558.06836888</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2319,12 +2329,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På grov högstubbe av gran.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2343,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67913282</v>
+        <v>67913188</v>
       </c>
       <c r="B16" t="n">
-        <v>89412</v>
+        <v>90665</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2355,25 +2371,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2385,10 +2401,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>716818.1044006473</v>
+        <v>717179.1824814338</v>
       </c>
       <c r="R16" t="n">
-        <v>6647053.18770974</v>
+        <v>6646951.186559737</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2458,10 +2474,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67913278</v>
+        <v>67913274</v>
       </c>
       <c r="B17" t="n">
-        <v>4717</v>
+        <v>73631</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2474,43 +2490,36 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>716755.7881303673</v>
+        <v>716880.97296897</v>
       </c>
       <c r="R17" t="n">
-        <v>6646896.172787146</v>
+        <v>6646865.800371076</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2553,6 +2562,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2579,10 +2593,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67914145</v>
+        <v>67913066</v>
       </c>
       <c r="B18" t="n">
-        <v>90674</v>
+        <v>101680</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2595,36 +2609,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5964</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>716558.9255464342</v>
+        <v>717187.9496040216</v>
       </c>
       <c r="R18" t="n">
-        <v>6646542.193822215</v>
+        <v>6646939.130624352</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2669,18 +2684,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2699,10 +2708,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67914377</v>
+        <v>67913254</v>
       </c>
       <c r="B19" t="n">
-        <v>99398</v>
+        <v>101680</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2715,21 +2724,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2742,10 +2751,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>716677.1987222674</v>
+        <v>716951.0444857149</v>
       </c>
       <c r="R19" t="n">
-        <v>6646389.202686813</v>
+        <v>6646881.979102565</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2814,10 +2823,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67913139</v>
+        <v>67914880</v>
       </c>
       <c r="B20" t="n">
-        <v>98520</v>
+        <v>90074</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2830,37 +2839,36 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>717187.9496040216</v>
+        <v>717163.0512021189</v>
       </c>
       <c r="R20" t="n">
-        <v>6646939.130624352</v>
+        <v>6646899.955352104</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2907,7 +2915,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>På torrgran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2916,6 +2924,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2934,10 +2943,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67913851</v>
+        <v>67913211</v>
       </c>
       <c r="B21" t="n">
-        <v>90074</v>
+        <v>90674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2950,21 +2959,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2976,10 +2985,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>716689.1208222503</v>
+        <v>717094.2343623195</v>
       </c>
       <c r="R21" t="n">
-        <v>6646907.853172779</v>
+        <v>6646948.209421237</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3026,7 +3035,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På höstubbe av gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3054,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67914156</v>
+        <v>67914856</v>
       </c>
       <c r="B22" t="n">
         <v>90665</v>
@@ -3096,10 +3105,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>716540.1688511835</v>
+        <v>717129.1341034661</v>
       </c>
       <c r="R22" t="n">
-        <v>6646527.014893715</v>
+        <v>6646799.908343226</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3169,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67914325</v>
+        <v>67914777</v>
       </c>
       <c r="B23" t="n">
-        <v>73631</v>
+        <v>89410</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3181,25 +3190,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6426</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3211,10 +3220,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>716625.9801276408</v>
+        <v>716852.0415224443</v>
       </c>
       <c r="R23" t="n">
-        <v>6646438.000615025</v>
+        <v>6646672.013723582</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>På grenar på gammal levande gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3270,6 +3279,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3288,10 +3298,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67913289</v>
+        <v>67913202</v>
       </c>
       <c r="B24" t="n">
-        <v>73631</v>
+        <v>89410</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3300,25 +3310,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6426</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3330,10 +3340,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>716779.0899203173</v>
+        <v>717132.8554776106</v>
       </c>
       <c r="R24" t="n">
-        <v>6647014.194535435</v>
+        <v>6646950.979990459</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3380,7 +3390,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>På grenar på torrgran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3389,6 +3399,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3407,10 +3418,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67914797</v>
+        <v>67914522</v>
       </c>
       <c r="B25" t="n">
-        <v>89410</v>
+        <v>98520</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3419,40 +3430,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>717063.1636913288</v>
+        <v>716658.238045899</v>
       </c>
       <c r="R25" t="n">
-        <v>6646773.909642578</v>
+        <v>6646558.06836888</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3499,7 +3511,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>På grenar på gammal levande gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3508,7 +3520,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3527,10 +3538,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67914183</v>
+        <v>67913247</v>
       </c>
       <c r="B26" t="n">
-        <v>90319</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3539,25 +3550,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4769</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3569,10 +3580,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>716584.1544428288</v>
+        <v>716979.9164224314</v>
       </c>
       <c r="R26" t="n">
-        <v>6646489.862934983</v>
+        <v>6646982.22850688</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3615,6 +3626,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3642,10 +3658,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67914512</v>
+        <v>67913143</v>
       </c>
       <c r="B27" t="n">
-        <v>90005</v>
+        <v>90697</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3654,25 +3670,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1339</v>
+        <v>5449</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3684,10 +3700,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>716658.238045899</v>
+        <v>717185.8272155134</v>
       </c>
       <c r="R27" t="n">
-        <v>6646558.06836888</v>
+        <v>6646958.113689412</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3730,11 +3746,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>På grov högstubbe av gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3762,10 +3773,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67914364</v>
+        <v>73101105</v>
       </c>
       <c r="B28" t="n">
-        <v>90665</v>
+        <v>85077</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3778,39 +3789,47 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>3762</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+          <t>(Fr.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>716675.1848726226</v>
+        <v>716788.3853775742</v>
       </c>
       <c r="R28" t="n">
-        <v>6646371.986039684</v>
+        <v>6646795.504157254</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3834,7 +3853,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3844,7 +3863,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3865,22 +3884,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67914198</v>
+        <v>73101093</v>
       </c>
       <c r="B29" t="n">
-        <v>99398</v>
+        <v>96355</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3893,40 +3912,53 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221235</v>
+        <v>219862</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>716578.2384365106</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R29" t="n">
-        <v>6646461.857673807</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3950,7 +3982,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3960,7 +3992,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3974,28 +4006,29 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67913188</v>
+        <v>73101110</v>
       </c>
       <c r="B30" t="n">
-        <v>90665</v>
+        <v>96312</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4008,39 +4041,45 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>219798</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>717179.1824814338</v>
+        <v>717050.8085189572</v>
       </c>
       <c r="R30" t="n">
-        <v>6646951.186559737</v>
+        <v>6646718.372707062</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4064,7 +4103,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4074,7 +4113,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4095,22 +4134,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67913183</v>
+        <v>73101095</v>
       </c>
       <c r="B31" t="n">
-        <v>90674</v>
+        <v>108194</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4123,39 +4162,45 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5964</v>
+        <v>219711</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Storkärret, Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>717196.8702048012</v>
+        <v>716677.9603077322</v>
       </c>
       <c r="R31" t="n">
-        <v>6646958.762340512</v>
+        <v>6646548.160545002</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4179,7 +4224,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4189,17 +4234,12 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
+          <t>2018-09-09</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4215,22 +4255,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Jacob Rudhe</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67913274</v>
+        <v>111667309</v>
       </c>
       <c r="B32" t="n">
-        <v>73631</v>
+        <v>5113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4243,39 +4283,50 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6426</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Norra Rörvik, S om, Upl</t>
+          <t>Södra Rörvik, Upl</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>716880.97296897</v>
+        <v>717045</v>
       </c>
       <c r="R32" t="n">
-        <v>6646865.800371076</v>
+        <v>6646924</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4299,27 +4350,17 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2017-09-28</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4328,28 +4369,29 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bo Törnquist</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bo Törnquist, Kjell  Andersson</t>
+          <t>Åke Lindelöw</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67913066</v>
+        <v>67914010</v>
       </c>
       <c r="B33" t="n">
-        <v>101680</v>
+        <v>93235</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4362,25 +4404,33 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222412</v>
+        <v>210</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>kapslar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4389,10 +4439,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>717187.9496040216</v>
+        <v>716545.1521927882</v>
       </c>
       <c r="R33" t="n">
-        <v>6646939.130624352</v>
+        <v>6646588.154634802</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4435,6 +4485,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På gammal rötskadad granlåga.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4461,10 +4516,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67914209</v>
+        <v>67914003</v>
       </c>
       <c r="B34" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4477,37 +4532,36 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>716578.2384365106</v>
+        <v>716563.1424072031</v>
       </c>
       <c r="R34" t="n">
-        <v>6646461.857673807</v>
+        <v>6646607.814324502</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4552,17 +4606,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4581,10 +4631,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67914162</v>
+        <v>67914177</v>
       </c>
       <c r="B35" t="n">
-        <v>99398</v>
+        <v>108194</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4597,21 +4647,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>221235</v>
+        <v>219711</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4624,10 +4674,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>716532.9289578204</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R35" t="n">
-        <v>6646513.013206748</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4696,10 +4746,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67913254</v>
+        <v>67914236</v>
       </c>
       <c r="B36" t="n">
-        <v>101680</v>
+        <v>5113</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4712,37 +4762,43 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222412</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>716951.0444857149</v>
+        <v>716606.9416252106</v>
       </c>
       <c r="R36" t="n">
-        <v>6646881.979102565</v>
+        <v>6646462.030048631</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4811,10 +4867,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67914880</v>
+        <v>67914140</v>
       </c>
       <c r="B37" t="n">
-        <v>90074</v>
+        <v>85077</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4827,21 +4883,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3298</v>
+        <v>3762</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cortinarius venetus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4853,10 +4909,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>717163.0512021189</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R37" t="n">
-        <v>6646899.955352104</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4899,11 +4955,6 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>På torrgran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4931,10 +4982,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67913211</v>
+        <v>67914480</v>
       </c>
       <c r="B38" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4947,21 +4998,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4973,10 +5024,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>717094.2343623195</v>
+        <v>716678.2056377706</v>
       </c>
       <c r="R38" t="n">
-        <v>6646948.209421237</v>
+        <v>6646397.810981502</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -5019,11 +5070,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5051,10 +5097,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67914856</v>
+        <v>67914073</v>
       </c>
       <c r="B39" t="n">
-        <v>90665</v>
+        <v>99398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5067,36 +5113,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4366</v>
+        <v>221235</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>717129.1341034661</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R39" t="n">
-        <v>6646799.908343226</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5147,7 +5194,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5166,7 +5212,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67914178</v>
+        <v>67914379</v>
       </c>
       <c r="B40" t="n">
         <v>101680</v>
@@ -5209,10 +5255,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>716551.2037129711</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R40" t="n">
-        <v>6646502.014087326</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5281,10 +5327,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67914777</v>
+        <v>67914145</v>
       </c>
       <c r="B41" t="n">
-        <v>89410</v>
+        <v>90674</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5293,25 +5339,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5323,10 +5369,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>716852.0415224443</v>
+        <v>716558.9255464342</v>
       </c>
       <c r="R41" t="n">
-        <v>6646672.013723582</v>
+        <v>6646542.193822215</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5373,7 +5419,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På grenar på gammal levande gran.</t>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5401,10 +5447,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67913202</v>
+        <v>67914377</v>
       </c>
       <c r="B42" t="n">
-        <v>89410</v>
+        <v>99398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5413,40 +5459,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>221235</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>717132.8554776106</v>
+        <v>716677.1987222674</v>
       </c>
       <c r="R42" t="n">
-        <v>6646950.979990459</v>
+        <v>6646389.202686813</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5491,18 +5538,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran.</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5521,10 +5562,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67914522</v>
+        <v>67914156</v>
       </c>
       <c r="B43" t="n">
-        <v>98520</v>
+        <v>90665</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5537,37 +5578,36 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>716658.238045899</v>
+        <v>716540.1688511835</v>
       </c>
       <c r="R43" t="n">
-        <v>6646558.06836888</v>
+        <v>6646527.014893715</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5612,17 +5652,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Allmänt förekommande inom området.</t>
-        </is>
-      </c>
       <c r="AD43" t="b">
         <v>0</v>
       </c>
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -5641,10 +5677,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67914185</v>
+        <v>67914325</v>
       </c>
       <c r="B44" t="n">
-        <v>90674</v>
+        <v>73631</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5657,21 +5693,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5964</v>
+        <v>6426</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5683,10 +5719,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>716584.1544428288</v>
+        <v>716625.9801276408</v>
       </c>
       <c r="R44" t="n">
-        <v>6646489.862934983</v>
+        <v>6646438.000615025</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5733,7 +5769,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Allmänt förekommande inom området.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5742,7 +5778,6 @@
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5761,10 +5796,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67913247</v>
+        <v>67914183</v>
       </c>
       <c r="B45" t="n">
-        <v>89410</v>
+        <v>90319</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5773,25 +5808,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>4769</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5803,10 +5838,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>716979.9164224314</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R45" t="n">
-        <v>6646982.22850688</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5849,11 +5884,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>På grenar på torrgran nära kärr.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5881,10 +5911,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67913143</v>
+        <v>67914364</v>
       </c>
       <c r="B46" t="n">
-        <v>90697</v>
+        <v>90665</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5893,25 +5923,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5923,10 +5953,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>717185.8272155134</v>
+        <v>716675.1848726226</v>
       </c>
       <c r="R46" t="n">
-        <v>6646958.113689412</v>
+        <v>6646371.986039684</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5996,10 +6026,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>73074590</v>
+        <v>67914198</v>
       </c>
       <c r="B47" t="n">
-        <v>89410</v>
+        <v>99398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6008,43 +6038,44 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>221235</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>717056.4331375832</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R47" t="n">
-        <v>6646141.874066723</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6068,7 +6099,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -6078,7 +6109,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -6092,44 +6123,28 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>73074517</v>
+        <v>67914209</v>
       </c>
       <c r="B48" t="n">
-        <v>90319</v>
+        <v>98520</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6142,39 +6157,40 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>716747.9366491341</v>
+        <v>716578.2384365106</v>
       </c>
       <c r="R48" t="n">
-        <v>6646334.004903612</v>
+        <v>6646461.857673807</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6198,7 +6214,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6208,7 +6224,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -6216,35 +6232,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>73074559</v>
+        <v>67914162</v>
       </c>
       <c r="B49" t="n">
-        <v>90661</v>
+        <v>99398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6253,51 +6273,44 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2058</v>
+        <v>221235</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>716799.1836699375</v>
+        <v>716532.9289578204</v>
       </c>
       <c r="R49" t="n">
-        <v>6646078.503997893</v>
+        <v>6646513.013206748</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6321,7 +6334,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -6331,7 +6344,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -6345,29 +6358,28 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>73074534</v>
+        <v>67914178</v>
       </c>
       <c r="B50" t="n">
-        <v>90674</v>
+        <v>101680</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6380,39 +6392,40 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5964</v>
+        <v>222412</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>716796.5957196323</v>
+        <v>716551.2037129711</v>
       </c>
       <c r="R50" t="n">
-        <v>6646114.061206665</v>
+        <v>6646502.014087326</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6436,7 +6449,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -6446,7 +6459,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6460,29 +6473,28 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>73074529</v>
+        <v>67914185</v>
       </c>
       <c r="B51" t="n">
-        <v>90661</v>
+        <v>90674</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6491,51 +6503,43 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2058</v>
+        <v>5964</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum lundellii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Södra Rörvik, SV om, Upl</t>
+          <t>Norra Rörvik, S om, Upl</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>716796.5957196323</v>
+        <v>716584.1544428288</v>
       </c>
       <c r="R51" t="n">
-        <v>6646114.061206665</v>
+        <v>6646489.862934983</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6559,7 +6563,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6569,12 +6573,17 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2018-09-09</t>
+          <t>2017-09-28</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Allmänt förekommande inom området.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6590,22 +6599,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Rasmus Elleby</t>
+          <t>Bo Törnquist</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
+          <t>Bo Törnquist, Kjell  Andersson</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>73074510</v>
+        <v>73074590</v>
       </c>
       <c r="B52" t="n">
-        <v>90665</v>
+        <v>89410</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6614,25 +6623,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6644,10 +6653,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>716692.486062364</v>
+        <v>717056.4331375832</v>
       </c>
       <c r="R52" t="n">
-        <v>6646360.427102973</v>
+        <v>6646141.874066723</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6701,6 +6710,21 @@
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6717,10 +6741,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73101105</v>
+        <v>73074517</v>
       </c>
       <c r="B53" t="n">
-        <v>85077</v>
+        <v>90319</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6733,47 +6757,39 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3762</v>
+        <v>4769</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cortinarius venetus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>716788.3853775742</v>
+        <v>716747.9366491341</v>
       </c>
       <c r="R53" t="n">
-        <v>6646795.504157254</v>
+        <v>6646334.004903612</v>
       </c>
       <c r="S53" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6828,22 +6844,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>73101093</v>
+        <v>73074559</v>
       </c>
       <c r="B54" t="n">
-        <v>96355</v>
+        <v>90661</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6852,25 +6868,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>219862</v>
+        <v>2058</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -6880,29 +6896,23 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>716677.9603077322</v>
+        <v>716799.1836699375</v>
       </c>
       <c r="R54" t="n">
-        <v>6646548.160545002</v>
+        <v>6646078.503997893</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6957,22 +6967,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>73101110</v>
+        <v>73074534</v>
       </c>
       <c r="B55" t="n">
-        <v>96312</v>
+        <v>90674</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6985,45 +6995,39 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219798</v>
+        <v>5964</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>717050.8085189572</v>
+        <v>716796.5957196323</v>
       </c>
       <c r="R55" t="n">
-        <v>6646718.372707062</v>
+        <v>6646114.061206665</v>
       </c>
       <c r="S55" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -7078,22 +7082,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73101095</v>
+        <v>73074529</v>
       </c>
       <c r="B56" t="n">
-        <v>108194</v>
+        <v>90661</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7102,49 +7106,51 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>219711</v>
+        <v>2058</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Hydnellum lundellii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Storkärret, Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>716677.9603077322</v>
+        <v>716796.5957196323</v>
       </c>
       <c r="R56" t="n">
-        <v>6646548.160545002</v>
+        <v>6646114.061206665</v>
       </c>
       <c r="S56" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7199,22 +7205,22 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Jacob Rudhe</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Jacob Rudhe, Rasmus Elleby, Jon Jörpeland</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111667309</v>
+        <v>73074510</v>
       </c>
       <c r="B57" t="n">
-        <v>5113</v>
+        <v>90665</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7227,50 +7233,39 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100526</v>
+        <v>4366</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Södra Rörvik, Upl</t>
+          <t>Södra Rörvik, SV om, Upl</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>717045</v>
+        <v>716692.486062364</v>
       </c>
       <c r="R57" t="n">
-        <v>6646924</v>
+        <v>6646360.427102973</v>
       </c>
       <c r="S57" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7294,17 +7289,22 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2018-09-09</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Larvgångar och ingångshål i veden på många granar som varit döda i några år.</t>
+          <t>2018-09-09</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7320,12 +7320,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Rasmus Elleby</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Åke Lindelöw</t>
+          <t>Rasmus Elleby, Jacob Rudhe, Jon Jörpeland</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
